--- a/scene_cat_exp_2023.2.2_english/input_files/36_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/36_scenecat_block_order.xlsx
@@ -365,12 +365,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_1</t>
+          <t>kitchens_2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>bedrooms_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_2</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -440,13 +440,13 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -454,16 +454,16 @@
         <v>0</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -500,13 +500,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
